--- a/notes/roseobactor_alias.xlsx
+++ b/notes/roseobactor_alias.xlsx
@@ -19,211 +19,310 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t xml:space="preserve"> DinoroseobactershibaeDFL12       </t>
   </si>
   <si>
-    <t xml:space="preserve"> Dino.DFL12        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jannaschiasp.CCS1                </t>
   </si>
   <si>
-    <t xml:space="preserve"> Jann.CCS1         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> LoktanellavestfoldensisSKA53     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lokt.SKA53        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> OceanibulbusindolifexHEL-45      </t>
   </si>
   <si>
-    <t xml:space="preserve"> Oceb.HEL45        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> OceanicolabatsensisHTCC2597      </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ocea.2597         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> OceanicolagranulosusHTCC2516     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ocea.2516         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Octadecabacterantarcticus307     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Octb.238          </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Octadecabacterarcticus238        </t>
   </si>
   <si>
-    <t xml:space="preserve"> Octb.307          </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Phaeobactergallaeciensis2.10     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Phae.2.10         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PhaeobactergallaeciensisBS107    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Phae.BS107        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RhodobacteralesbacteriumHTCC2083 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rhod.2083         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RhodobacteralesbacteriumHTCC2150 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rhod.2150         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RhodobacteralesbacteriumHTCC2255 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rhod.2255         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RhodobacteralesbacteriumHTCC2654 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rhod.2654         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RhodobacteralesbacteriumY4I      </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rhod.Y4I          </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RoseobacterdenitrificansOCh114   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rosd.OC114        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RoseobacterlitoralisOch149       </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rosl.OC149        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Roseobactersp.AzwK-3b            </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rosp.AzK3b        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Roseobactersp.CCS2               </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rosp.CCS2         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Roseobactersp.GAI101             </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rosp.GA101        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Roseobactersp.MED193             </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rosp.ME193        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Roseobactersp.SK209-2-6          </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rosp.20926        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RoseovariusTM1035                </t>
   </si>
   <si>
-    <t xml:space="preserve"> Roso.T1035        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RoseovariusnubinhibensISM        </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rosn.T1035        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Roseovariussp.217                </t>
   </si>
   <si>
-    <t xml:space="preserve"> Roso.217          </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Roseovariussp.HTCC2601           </t>
   </si>
   <si>
-    <t xml:space="preserve"> Roso.2601         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ruegeriasp.R11                   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rueg.R11          </t>
-  </si>
-  <si>
     <t xml:space="preserve"> SagittulastellataE-37            </t>
   </si>
   <si>
-    <t xml:space="preserve"> Sagt.E-37         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> SilicibacterpomeroyiDSS-3        </t>
   </si>
   <si>
-    <t xml:space="preserve"> Sili.DSS-3        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> SulfitobacterNAS-14.1            </t>
   </si>
   <si>
-    <t xml:space="preserve"> Sulf.NAS14        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sulfitobactersp.EE-36            </t>
   </si>
   <si>
-    <t xml:space="preserve"> Sulf.EE-36        </t>
-  </si>
-  <si>
     <t xml:space="preserve"> TM1040                           </t>
   </si>
   <si>
-    <t xml:space="preserve"> TM1040            </t>
-  </si>
-  <si>
-    <t>Full Name Given in Input</t>
-  </si>
-  <si>
-    <t>Short Name I used</t>
+    <t xml:space="preserve">Dino.DFL12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dinoroseobacter shibae DFL12          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jann.CCS1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jannaschia sp. CCS1                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokt.SKA53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loktanella vestfoldensis SKA53        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceb.HEL45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oceanibulbus indolifex HEL-45         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocea.2597  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oceanicola batsensis HTCC2597         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocea.2516  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oceanicola granulosus HTCC2516        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octb.307   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Octadecabacter antarcticus 307        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octb.238   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Octadecabacter arcticus 238           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phae.2.10  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phaeobacter gallaeciensis 2.10        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phae.BS107 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phaeobacter gallaeciensis BS107       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhod.2083  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rhodobacterales bacterium HTCC2083    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhod.2150  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rhodobacterales bacterium HTCC2150    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhod.2255  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rhodobacterales bacterium HTCC2255    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhod.2654  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maritimibacter alkaliphilus HTCC2654  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhod.Y4I   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rhodobacterales bacterium Y4I         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosd.OC114 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roseobacter denitrificans OCh 114     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosl.OC149 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roseobacter litoralis Och 149         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosp.AzK3b </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roseobacter sp. AzwK-3b               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosp.CCS2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roseobacter sp. CCS2                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosp.GA101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roseobacter sp. GAI101                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosp.ME193 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roseobacter sp. MED193                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosp.20926 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roseobacter sp. SK209-2-6             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roso.T1035 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roseovarius sp. TM1035                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosn.T1035 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roseovarius nubinhibins ISM           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roso.217   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roseovarius sp. 217                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roso.2601  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pelagibaca bermudensis HTCC2601       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rueg.R11   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ruegeria sp. R11                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagt.E-37  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sagittula stellata E-37               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sili.DSS-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ruegeria pomeroyi DSS-3               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulf.NAS14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sulfitobacter sp. NAS-14.1            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulf.EE-36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sulfitobacter sp. EE-36               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM1040     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ruegeria sp. TM1040                   </t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Name used by Yangchau</t>
+  </si>
+  <si>
+    <t>Name in Input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,9 +331,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,14 +364,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,284 +708,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
+      <c r="C34" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
